--- a/work.xlsx
+++ b/work.xlsx
@@ -1,106 +1,101 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010"/>
+    <workbookView windowHeight="17940"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
   <si>
     <t>日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Dinner</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Box</t>
+  </si>
+  <si>
+    <t>Normal</t>
+  </si>
+  <si>
+    <t>Transform</t>
+  </si>
+  <si>
+    <t>Color</t>
+  </si>
+  <si>
+    <t>File</t>
+  </si>
+  <si>
+    <t>ObjectMerge</t>
+  </si>
+  <si>
+    <t>Merge</t>
+  </si>
+  <si>
+    <t>Group Create</t>
+  </si>
+  <si>
+    <t>Group Delete</t>
+  </si>
+  <si>
+    <t>Blast</t>
+  </si>
+  <si>
+    <t>Tube</t>
+  </si>
+  <si>
+    <t>PolyExtrude</t>
+  </si>
+  <si>
+    <t>GroupRange</t>
+  </si>
+  <si>
+    <t>GroupCombine</t>
+  </si>
+  <si>
+    <t>Group by Lasso</t>
+  </si>
+  <si>
+    <t>Group Copy</t>
+  </si>
+  <si>
+    <t>Group Promote</t>
+  </si>
+  <si>
+    <t>Group Paint</t>
+  </si>
+  <si>
+    <t>Group Expression</t>
+  </si>
+  <si>
+    <t>Name from Group</t>
+  </si>
+  <si>
+    <t>Connectivity</t>
   </si>
   <si>
     <t>Attribute Create</t>
   </si>
   <si>
-    <t>Box</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Normal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Transform</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Color</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>File</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ObjectMerge</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Group Create</t>
-  </si>
-  <si>
-    <t>Group Delete</t>
-  </si>
-  <si>
-    <t>Blast</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tube</t>
-  </si>
-  <si>
-    <t>PolyExtrude</t>
-  </si>
-  <si>
-    <t>GroupRange</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GroupCombine</t>
-  </si>
-  <si>
-    <t>Group by Lasso</t>
-  </si>
-  <si>
-    <t>Group Copy</t>
-  </si>
-  <si>
-    <t>Group Promote</t>
-  </si>
-  <si>
-    <t>Group Paint</t>
-  </si>
-  <si>
-    <t>Group Expression</t>
-  </si>
-  <si>
-    <t>Name from Group</t>
+    <t>Partition</t>
   </si>
   <si>
     <t>Assemble</t>
   </si>
   <si>
-    <t>Partition</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Scatter</t>
   </si>
   <si>
@@ -108,7 +103,6 @@
   </si>
   <si>
     <t>Exploded View</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>RBD Material Fracture</t>
@@ -118,84 +112,92 @@
   </si>
   <si>
     <t>Font</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Delete</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Line</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Attribute Randomize</t>
   </si>
   <si>
     <t>Bound</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Merge</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Copy Stamp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Measure</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Connectivity</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Poly Wire</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Circle</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Primitive Properties</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Attribute Delete</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Attribute Blur</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Attribute Noise</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Attribute Paint</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Attribute Promote</t>
+  </si>
+  <si>
+    <t>Attribute Copy</t>
+  </si>
+  <si>
+    <t>Attribute Combine</t>
+  </si>
+  <si>
+    <t>Attribute Expression</t>
+  </si>
+  <si>
+    <t>Attribute from Map</t>
+  </si>
+  <si>
+    <t>Distance Along Geometry</t>
+  </si>
+  <si>
+    <t>Attribute Transfer</t>
+  </si>
+  <si>
+    <t>Unpack</t>
+  </si>
+  <si>
+    <t>Solver</t>
+  </si>
+  <si>
+    <t>Points from Volume</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -204,20 +206,349 @@
       <sz val="11"/>
       <color rgb="FF00B050"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -225,29 +556,321 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -538,34 +1161,34 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:K42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="20.6328125" customWidth="1"/>
-    <col min="2" max="2" width="26.6328125" customWidth="1"/>
-    <col min="3" max="3" width="20.1796875" customWidth="1"/>
-    <col min="4" max="4" width="20.81640625" customWidth="1"/>
-    <col min="5" max="5" width="24.453125" customWidth="1"/>
-    <col min="6" max="6" width="28.54296875" customWidth="1"/>
-    <col min="7" max="7" width="25.81640625" customWidth="1"/>
-    <col min="8" max="8" width="22.54296875" customWidth="1"/>
-    <col min="9" max="9" width="30.453125" customWidth="1"/>
-    <col min="10" max="10" width="39.26953125" customWidth="1"/>
-    <col min="11" max="11" width="25.6328125" customWidth="1"/>
+    <col min="1" max="1" width="20.6333333333333" customWidth="1"/>
+    <col min="2" max="2" width="26.6333333333333" customWidth="1"/>
+    <col min="3" max="3" width="20.1833333333333" customWidth="1"/>
+    <col min="4" max="4" width="20.8166666666667" customWidth="1"/>
+    <col min="5" max="5" width="24.45" customWidth="1"/>
+    <col min="6" max="6" width="28.5416666666667" customWidth="1"/>
+    <col min="7" max="7" width="25.8166666666667" customWidth="1"/>
+    <col min="8" max="8" width="22.5416666666667" customWidth="1"/>
+    <col min="9" max="9" width="30.45" customWidth="1"/>
+    <col min="10" max="10" width="39.2666666666667" customWidth="1"/>
+    <col min="11" max="11" width="25.6333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -600,197 +1223,219 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
+    <row r="2" spans="1:11">
+      <c r="A2" s="2">
         <v>44886</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="G2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="H2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="2">
+        <v>44887</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K3" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="2">
+        <v>44888</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="K4" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="2">
+        <v>44889</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I5" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
-        <v>44887</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="K3" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
-        <v>44888</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="4" t="s">
+      <c r="J5" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="K5" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="2">
+        <v>44890</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="G4" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="K4" s="4">
+      <c r="D6" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="K6" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
-        <v>44889</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="K5" s="4">
+    <row r="7" spans="1:11">
+      <c r="A7" s="4">
+        <v>44891</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="K7" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
-        <v>44890</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="K6" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
-        <v>44891</v>
-      </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
+    <row r="8" spans="1:11">
+      <c r="A8" s="4">
         <v>44892</v>
       </c>
-      <c r="B8" s="1"/>
+      <c r="B8" s="1" t="s">
+        <v>54</v>
+      </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -801,8 +1446,8 @@
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
+    <row r="9" spans="1:11">
+      <c r="A9" s="4">
         <v>44893</v>
       </c>
       <c r="B9" s="1"/>
@@ -816,8 +1461,8 @@
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
+    <row r="10" spans="1:11">
+      <c r="A10" s="4">
         <v>44894</v>
       </c>
       <c r="B10" s="1"/>
@@ -831,8 +1476,8 @@
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
+    <row r="11" spans="1:11">
+      <c r="A11" s="4">
         <v>44895</v>
       </c>
       <c r="B11" s="1"/>
@@ -846,8 +1491,8 @@
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
+    <row r="12" spans="1:11">
+      <c r="A12" s="4">
         <v>44896</v>
       </c>
       <c r="B12" s="1"/>
@@ -861,8 +1506,8 @@
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
+    <row r="13" spans="1:11">
+      <c r="A13" s="4">
         <v>44897</v>
       </c>
       <c r="B13" s="1"/>
@@ -876,8 +1521,8 @@
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
+    <row r="14" spans="1:11">
+      <c r="A14" s="4">
         <v>44898</v>
       </c>
       <c r="B14" s="1"/>
@@ -891,8 +1536,8 @@
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
+    <row r="15" spans="1:11">
+      <c r="A15" s="4">
         <v>44899</v>
       </c>
       <c r="B15" s="1"/>
@@ -906,8 +1551,8 @@
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
+    <row r="16" spans="1:11">
+      <c r="A16" s="4">
         <v>44900</v>
       </c>
       <c r="B16" s="1"/>
@@ -921,8 +1566,8 @@
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
+    <row r="17" spans="1:11">
+      <c r="A17" s="4">
         <v>44901</v>
       </c>
       <c r="B17" s="1"/>
@@ -936,8 +1581,8 @@
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
+    <row r="18" spans="1:11">
+      <c r="A18" s="4">
         <v>44902</v>
       </c>
       <c r="B18" s="1"/>
@@ -951,8 +1596,8 @@
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
+    <row r="19" spans="1:11">
+      <c r="A19" s="4">
         <v>44903</v>
       </c>
       <c r="B19" s="1"/>
@@ -966,8 +1611,8 @@
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="2">
+    <row r="20" spans="1:11">
+      <c r="A20" s="4">
         <v>44904</v>
       </c>
       <c r="B20" s="1"/>
@@ -981,8 +1626,8 @@
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
+    <row r="21" spans="1:11">
+      <c r="A21" s="4">
         <v>44905</v>
       </c>
       <c r="B21" s="1"/>
@@ -996,8 +1641,8 @@
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="2">
+    <row r="22" spans="1:11">
+      <c r="A22" s="4">
         <v>44906</v>
       </c>
       <c r="B22" s="1"/>
@@ -1011,8 +1656,8 @@
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="2">
+    <row r="23" spans="1:11">
+      <c r="A23" s="4">
         <v>44907</v>
       </c>
       <c r="B23" s="1"/>
@@ -1026,8 +1671,8 @@
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="2">
+    <row r="24" spans="1:11">
+      <c r="A24" s="4">
         <v>44908</v>
       </c>
       <c r="B24" s="1"/>
@@ -1041,8 +1686,8 @@
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="2">
+    <row r="25" spans="1:11">
+      <c r="A25" s="4">
         <v>44909</v>
       </c>
       <c r="B25" s="1"/>
@@ -1056,8 +1701,8 @@
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="2">
+    <row r="26" spans="1:11">
+      <c r="A26" s="4">
         <v>44910</v>
       </c>
       <c r="B26" s="1"/>
@@ -1071,8 +1716,8 @@
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="2">
+    <row r="27" spans="1:11">
+      <c r="A27" s="4">
         <v>44911</v>
       </c>
       <c r="B27" s="1"/>
@@ -1086,8 +1731,8 @@
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="2">
+    <row r="28" spans="1:11">
+      <c r="A28" s="4">
         <v>44912</v>
       </c>
       <c r="B28" s="1"/>
@@ -1101,8 +1746,8 @@
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="2">
+    <row r="29" spans="1:11">
+      <c r="A29" s="4">
         <v>44913</v>
       </c>
       <c r="B29" s="1"/>
@@ -1116,8 +1761,8 @@
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="2">
+    <row r="30" spans="1:11">
+      <c r="A30" s="4">
         <v>44914</v>
       </c>
       <c r="B30" s="1"/>
@@ -1131,8 +1776,8 @@
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="2">
+    <row r="31" spans="1:11">
+      <c r="A31" s="4">
         <v>44915</v>
       </c>
       <c r="B31" s="1"/>
@@ -1146,8 +1791,8 @@
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="2">
+    <row r="32" spans="1:11">
+      <c r="A32" s="4">
         <v>44916</v>
       </c>
       <c r="B32" s="1"/>
@@ -1161,8 +1806,8 @@
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" s="2">
+    <row r="33" spans="1:11">
+      <c r="A33" s="4">
         <v>44917</v>
       </c>
       <c r="B33" s="1"/>
@@ -1176,8 +1821,8 @@
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="2">
+    <row r="34" spans="1:11">
+      <c r="A34" s="4">
         <v>44918</v>
       </c>
       <c r="B34" s="1"/>
@@ -1191,8 +1836,8 @@
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" s="2">
+    <row r="35" spans="1:11">
+      <c r="A35" s="4">
         <v>44919</v>
       </c>
       <c r="B35" s="1"/>
@@ -1206,8 +1851,8 @@
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" s="2">
+    <row r="36" spans="1:11">
+      <c r="A36" s="4">
         <v>44920</v>
       </c>
       <c r="B36" s="1"/>
@@ -1221,8 +1866,8 @@
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" s="2">
+    <row r="37" spans="1:11">
+      <c r="A37" s="4">
         <v>44921</v>
       </c>
       <c r="B37" s="1"/>
@@ -1236,8 +1881,8 @@
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" s="2">
+    <row r="38" spans="1:11">
+      <c r="A38" s="4">
         <v>44922</v>
       </c>
       <c r="B38" s="1"/>
@@ -1251,8 +1896,8 @@
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A39" s="2">
+    <row r="39" spans="1:11">
+      <c r="A39" s="4">
         <v>44923</v>
       </c>
       <c r="B39" s="1"/>
@@ -1266,8 +1911,8 @@
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A40" s="2">
+    <row r="40" spans="1:11">
+      <c r="A40" s="4">
         <v>44924</v>
       </c>
       <c r="B40" s="1"/>
@@ -1281,8 +1926,8 @@
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A41" s="2">
+    <row r="41" spans="1:11">
+      <c r="A41" s="4">
         <v>44925</v>
       </c>
       <c r="B41" s="1"/>
@@ -1296,8 +1941,8 @@
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A42" s="2">
+    <row r="42" spans="1:11">
+      <c r="A42" s="4">
         <v>44926</v>
       </c>
       <c r="B42" s="1"/>
@@ -1312,34 +1957,40 @@
       <c r="K42" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>